--- a/data/trans_orig/P15D$ingresado-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15D$ingresado-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{587774EF-2DE5-4222-A1FE-9453541F7D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C888260-06EA-4921-877A-F77CEA730C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{287B8A1A-011C-4F18-977E-D9E241C70A36}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E32E54C7-9B57-4C65-BC31-4E0E8B60B6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1023">
-  <si>
-    <t>Población según consecuencia del último accidente en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1054">
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -851,10 +851,100 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según consecuencia del último accidente en 2012</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>17,25%</t>
@@ -971,9 +1061,6 @@
     <t>5,41%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>10,84%</t>
   </si>
   <si>
@@ -1055,2059 +1142,2065 @@
     <t>59,19%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>Población según consecuencia del último accidente en 2016</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>Población según consecuencia del último accidente en 2023</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
 </sst>
 </file>
@@ -3519,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6387A3-999D-4263-87AC-7589463EAF55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8DE3F7-0CB2-4677-A594-ABF14724EB7C}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4831,7 +4924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD30E137-1E13-454A-86BD-DA1A3A3D369D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F872C86-DC38-4D29-8FE3-BDD73FEDEFCE}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4922,28 +5015,28 @@
         <v>271</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4952,31 +5045,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4985,31 +5078,31 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5018,31 +5111,31 @@
         <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5053,31 +5146,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5086,31 +5179,31 @@
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5119,31 +5212,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5152,31 +5245,31 @@
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5187,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>10</v>
@@ -5196,22 +5289,22 @@
         <v>178</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5220,31 +5313,31 @@
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5253,31 +5346,31 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5289,28 +5382,28 @@
         <v>200</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5321,31 +5414,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>339</v>
+        <v>10</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5354,31 +5447,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5387,13 +5480,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
@@ -5402,16 +5495,16 @@
         <v>12</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>273</v>
+        <v>387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5420,31 +5513,31 @@
         <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5455,31 +5548,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5488,31 +5581,31 @@
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5521,31 +5614,31 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5560,25 +5653,25 @@
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5595,25 +5688,25 @@
         <v>12</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>425</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5622,31 +5715,31 @@
         <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5655,31 +5748,31 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5688,31 +5781,31 @@
         <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>267</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5723,31 +5816,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5756,31 +5849,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5789,31 +5882,31 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5822,31 +5915,31 @@
         <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -5857,31 +5950,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -5890,31 +5983,31 @@
         <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -5929,25 +6022,25 @@
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -5956,31 +6049,31 @@
         <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -5997,25 +6090,25 @@
         <v>150</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6024,31 +6117,31 @@
         <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -6057,31 +6150,31 @@
         <v>26</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6090,31 +6183,31 @@
         <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>268</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6143,7 +6236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B430CB49-6087-44B7-8FD5-CEEE29E98D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4890DDD-8669-4F8D-BF5C-4D27813585D8}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6160,7 +6253,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6237,25 +6330,25 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6264,31 +6357,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6297,31 +6390,31 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6330,31 +6423,31 @@
         <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6365,16 +6458,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>10</v>
@@ -6383,13 +6476,13 @@
         <v>110</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6398,31 +6491,31 @@
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6455,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6464,31 +6557,31 @@
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>577</v>
+        <v>300</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6505,7 +6598,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
@@ -6523,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6532,31 +6625,31 @@
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6565,31 +6658,31 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>219</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>220</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6598,31 +6691,31 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>224</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6633,31 +6726,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6666,31 +6759,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6699,31 +6792,31 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6732,31 +6825,31 @@
         <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>344</v>
+        <v>659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6767,13 +6860,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
@@ -6782,16 +6875,16 @@
         <v>12</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6800,31 +6893,31 @@
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -6833,13 +6926,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
@@ -6848,16 +6941,16 @@
         <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6866,13 +6959,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
@@ -6881,16 +6974,16 @@
         <v>12</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -6901,31 +6994,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6934,31 +7027,31 @@
         <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6967,31 +7060,31 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7000,31 +7093,31 @@
         <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -7035,31 +7128,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>692</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7068,31 +7161,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7107,25 +7200,25 @@
         <v>12</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7134,31 +7227,31 @@
         <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7169,13 +7262,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
@@ -7187,13 +7280,13 @@
         <v>219</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -7202,31 +7295,31 @@
         <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>721</v>
+        <v>748</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -7235,31 +7328,31 @@
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>208</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -7268,31 +7361,31 @@
         <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -7303,31 +7396,31 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -7336,31 +7429,31 @@
         <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -7369,31 +7462,31 @@
         <v>26</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>259</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -7402,31 +7495,31 @@
         <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -7455,7 +7548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22C1071-8949-46B2-ABE3-E7F39747BC2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B66DFD6-D57B-48E1-B855-5C72BDE52EF9}">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7472,7 +7565,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7543,31 +7636,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>772</v>
+        <v>628</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>774</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7576,31 +7669,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>614</v>
+        <v>805</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>780</v>
+        <v>806</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>781</v>
+        <v>807</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>782</v>
+        <v>808</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>783</v>
+        <v>809</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>784</v>
+        <v>810</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>785</v>
+        <v>811</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>786</v>
+        <v>812</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>787</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7609,31 +7702,31 @@
         <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>789</v>
+        <v>475</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7642,31 +7735,31 @@
         <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>710</v>
+        <v>821</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>109</v>
+        <v>822</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>798</v>
+        <v>825</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>800</v>
+        <v>827</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>801</v>
+        <v>828</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7677,31 +7770,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>804</v>
+        <v>832</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>143</v>
+        <v>833</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>806</v>
+        <v>395</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>807</v>
+        <v>471</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7710,31 +7803,31 @@
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7743,31 +7836,31 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>203</v>
+        <v>847</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>678</v>
+        <v>604</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>223</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7776,31 +7869,31 @@
         <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>825</v>
+        <v>854</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>826</v>
+        <v>855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>830</v>
+        <v>859</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>486</v>
+        <v>860</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7811,31 +7904,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>779</v>
+        <v>862</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>832</v>
+        <v>508</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>731</v>
+        <v>863</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>581</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>834</v>
+        <v>865</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7844,31 +7937,31 @@
         <v>16</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>869</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>838</v>
+        <v>870</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>840</v>
+        <v>872</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>842</v>
+        <v>874</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>843</v>
+        <v>875</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>845</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7877,31 +7970,31 @@
         <v>26</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>848</v>
+        <v>880</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>853</v>
+        <v>885</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>854</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7910,31 +8003,31 @@
         <v>34</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>855</v>
+        <v>886</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>857</v>
+        <v>888</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>858</v>
+        <v>889</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>761</v>
+        <v>890</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>398</v>
+        <v>893</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>861</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -7945,31 +8038,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>862</v>
+        <v>894</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>863</v>
+        <v>895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>864</v>
+        <v>896</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>865</v>
+        <v>897</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>866</v>
+        <v>898</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>867</v>
+        <v>692</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>868</v>
+        <v>899</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>869</v>
+        <v>900</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>870</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -7978,31 +8071,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>873</v>
+        <v>903</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>875</v>
+        <v>905</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>876</v>
+        <v>906</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>877</v>
+        <v>907</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>879</v>
+        <v>909</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -8011,31 +8104,31 @@
         <v>26</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>880</v>
+        <v>910</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>881</v>
+        <v>911</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>882</v>
+        <v>912</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>883</v>
+        <v>913</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>885</v>
+        <v>524</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>886</v>
+        <v>652</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -8044,31 +8137,31 @@
         <v>34</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>630</v>
+        <v>919</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>893</v>
+        <v>922</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -8091,19 +8184,19 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>895</v>
+        <v>924</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>896</v>
+        <v>205</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -8112,10 +8205,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>926</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>897</v>
+        <v>927</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -8127,13 +8220,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>898</v>
+        <v>928</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>899</v>
+        <v>929</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>22</v>
@@ -8160,7 +8253,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>898</v>
+        <v>928</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>10</v>
@@ -8178,13 +8271,13 @@
         <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>902</v>
+        <v>932</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
@@ -8193,16 +8286,16 @@
         <v>12</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>898</v>
+        <v>928</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>903</v>
+        <v>623</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -8213,31 +8306,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>908</v>
+        <v>558</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>909</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>196</v>
+        <v>937</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>50</v>
+        <v>712</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>911</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -8246,31 +8339,31 @@
         <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>913</v>
+        <v>388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>941</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>916</v>
+        <v>190</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>917</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>918</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -8279,31 +8372,31 @@
         <v>26</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>919</v>
+        <v>946</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>717</v>
+        <v>947</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>923</v>
+        <v>951</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -8312,31 +8405,31 @@
         <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>548</v>
+        <v>955</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>932</v>
+        <v>262</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>40</v>
+        <v>962</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -8347,31 +8440,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>936</v>
+        <v>965</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -8380,31 +8473,31 @@
         <v>16</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -8413,31 +8506,31 @@
         <v>26</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>953</v>
+        <v>760</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>267</v>
+        <v>983</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>368</v>
+        <v>984</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>955</v>
+        <v>985</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>956</v>
+        <v>986</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>957</v>
+        <v>987</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>958</v>
+        <v>988</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8446,31 +8539,31 @@
         <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>959</v>
+        <v>989</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>603</v>
+        <v>990</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>763</v>
+        <v>991</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>960</v>
+        <v>992</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>961</v>
+        <v>993</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>962</v>
+        <v>918</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>32</v>
+        <v>994</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>963</v>
+        <v>995</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -8481,31 +8574,31 @@
         <v>8</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>576</v>
+        <v>996</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>508</v>
+        <v>997</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>964</v>
+        <v>998</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>136</v>
+        <v>1001</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>967</v>
+        <v>1002</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>968</v>
+        <v>490</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>969</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8514,31 +8607,31 @@
         <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>970</v>
+        <v>1004</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>971</v>
+        <v>1005</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>972</v>
+        <v>1006</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>973</v>
+        <v>1007</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8556,22 +8649,22 @@
         <v>219</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>431</v>
+        <v>947</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>980</v>
+        <v>328</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>981</v>
+        <v>1014</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>983</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8580,31 +8673,31 @@
         <v>34</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>984</v>
+        <v>95</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>985</v>
+        <v>1017</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>524</v>
+        <v>1018</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>986</v>
+        <v>1019</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>987</v>
+        <v>1020</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>988</v>
+        <v>1021</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>989</v>
+        <v>774</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>990</v>
+        <v>1022</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>991</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8615,31 +8708,31 @@
         <v>8</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>924</v>
+        <v>1024</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>993</v>
+        <v>1026</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>994</v>
+        <v>1027</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>1028</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>995</v>
+        <v>1029</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>996</v>
+        <v>1030</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>997</v>
+        <v>1031</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8648,31 +8741,31 @@
         <v>16</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>998</v>
+        <v>1032</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>999</v>
+        <v>1033</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1002</v>
+        <v>1036</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1003</v>
+        <v>1037</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1004</v>
+        <v>104</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1005</v>
+        <v>1038</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>1006</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8681,31 +8774,31 @@
         <v>26</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1007</v>
+        <v>1039</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1008</v>
+        <v>600</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>776</v>
+        <v>1040</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>1009</v>
+        <v>1041</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1010</v>
+        <v>1042</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1011</v>
+        <v>1043</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1012</v>
+        <v>801</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1013</v>
+        <v>1044</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>939</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8714,31 +8807,31 @@
         <v>34</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1014</v>
+        <v>1045</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1016</v>
+        <v>1047</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>1017</v>
+        <v>1048</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1018</v>
+        <v>1049</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1019</v>
+        <v>1050</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1020</v>
+        <v>1051</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>1021</v>
+        <v>1052</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>1022</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
